--- a/Documentation/DataDictionary.xlsx
+++ b/Documentation/DataDictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="111">
   <si>
     <t>GREY CUBE DEVELOPMENT</t>
   </si>
@@ -80,9 +80,6 @@
     <t>password salt</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Table Name: Game</t>
   </si>
   <si>
@@ -162,6 +159,204 @@
   </si>
   <si>
     <t>"Event Date"</t>
+  </si>
+  <si>
+    <t>Table Name: Attendance</t>
+  </si>
+  <si>
+    <t>AttendanceId</t>
+  </si>
+  <si>
+    <t>MemberId</t>
+  </si>
+  <si>
+    <t>EventId</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>attendance key</t>
+  </si>
+  <si>
+    <t>Table Name: Credit Card</t>
+  </si>
+  <si>
+    <t>CreditCardId</t>
+  </si>
+  <si>
+    <t>ExpMonth</t>
+  </si>
+  <si>
+    <t>CcNum</t>
+  </si>
+  <si>
+    <t>ExpYear</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>credit card key</t>
+  </si>
+  <si>
+    <t>credit card number</t>
+  </si>
+  <si>
+    <t>expiry month</t>
+  </si>
+  <si>
+    <t>expiry year</t>
+  </si>
+  <si>
+    <t>CC owner name</t>
+  </si>
+  <si>
+    <t>CC owner street address</t>
+  </si>
+  <si>
+    <t>CC owner city</t>
+  </si>
+  <si>
+    <t>CC owner province</t>
+  </si>
+  <si>
+    <t>CC owner postal code</t>
+  </si>
+  <si>
+    <t>"Credit Card Number"</t>
+  </si>
+  <si>
+    <t>"Expiry Month"</t>
+  </si>
+  <si>
+    <t>"Expiry Year"</t>
+  </si>
+  <si>
+    <t>"Name"</t>
+  </si>
+  <si>
+    <t>"Street Address"</t>
+  </si>
+  <si>
+    <t>"City"</t>
+  </si>
+  <si>
+    <t>"Province"</t>
+  </si>
+  <si>
+    <t>"Postal Code"</t>
+  </si>
+  <si>
+    <t>Table Name: Friend</t>
+  </si>
+  <si>
+    <t>FriendId</t>
+  </si>
+  <si>
+    <t>FriendMemberId</t>
+  </si>
+  <si>
+    <t>friend key</t>
+  </si>
+  <si>
+    <t>Table Name: Library</t>
+  </si>
+  <si>
+    <t>LibraryId</t>
+  </si>
+  <si>
+    <t>library key</t>
+  </si>
+  <si>
+    <t>GameId</t>
+  </si>
+  <si>
+    <t>member key</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>member name</t>
+  </si>
+  <si>
+    <t>"Member Name"</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>MailingStreetAddress</t>
+  </si>
+  <si>
+    <t>MailingPostalCode</t>
+  </si>
+  <si>
+    <t>MailingCity</t>
+  </si>
+  <si>
+    <t>MailingProvince</t>
+  </si>
+  <si>
+    <t>ShippingStreetAddress</t>
+  </si>
+  <si>
+    <t>ShippingPostalCode</t>
+  </si>
+  <si>
+    <t>ShippingCity</t>
+  </si>
+  <si>
+    <t>ShippingProvince</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>mailing street address</t>
+  </si>
+  <si>
+    <t>mailing postal code</t>
+  </si>
+  <si>
+    <t>mailing city</t>
+  </si>
+  <si>
+    <t>mailing province</t>
+  </si>
+  <si>
+    <t>shipping street address</t>
+  </si>
+  <si>
+    <t>shipping postal code</t>
+  </si>
+  <si>
+    <t>shipping city</t>
+  </si>
+  <si>
+    <t>shipping province</t>
   </si>
 </sst>
 </file>
@@ -495,18 +690,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -541,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,7 +815,7 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -641,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,53 +844,53 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,7 +898,7 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -724,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,70 +927,793 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="E20" s="4">
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataDictionary.xlsx
+++ b/Documentation/DataDictionary.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="134">
   <si>
     <t>GREY CUBE DEVELOPMENT</t>
   </si>
   <si>
-    <t>DATA DICTIONARY - Iteration Phase 1</t>
-  </si>
-  <si>
     <t>Table Name: Employee</t>
   </si>
   <si>
@@ -357,6 +354,78 @@
   </si>
   <si>
     <t>shipping province</t>
+  </si>
+  <si>
+    <t>Table Name: Member</t>
+  </si>
+  <si>
+    <t>Table Name: Rating</t>
+  </si>
+  <si>
+    <t>RatingId</t>
+  </si>
+  <si>
+    <t>RatingScore</t>
+  </si>
+  <si>
+    <t>"Rating"</t>
+  </si>
+  <si>
+    <t>Table Name: Review</t>
+  </si>
+  <si>
+    <t>ReviewId</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>ReviewText</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>"Recommended"</t>
+  </si>
+  <si>
+    <t>rating key</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>review key</t>
+  </si>
+  <si>
+    <t>recommended? (yes/no)</t>
+  </si>
+  <si>
+    <t>review text</t>
+  </si>
+  <si>
+    <t>"Review Text"</t>
+  </si>
+  <si>
+    <t>approved flag (hidden)</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>Table Name: Wishlist</t>
+  </si>
+  <si>
+    <t>WishlistId</t>
+  </si>
+  <si>
+    <t>wishlist key</t>
+  </si>
+  <si>
+    <t>DATA DICTIONARY - Iteration Phase 2</t>
   </si>
 </sst>
 </file>
@@ -690,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,103 +780,103 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,82 +884,82 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,104 +967,104 @@
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1005,69 +1074,69 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1077,197 +1146,197 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1277,69 +1346,69 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1349,75 +1418,75 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1427,268 +1496,268 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
         <v>88</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
         <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1698,21 +1767,275 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" t="s">
         <v>34</v>
       </c>
     </row>
